--- a/Personal/xiemin/第六周计划 2018.03.12-2018.03.18.xlsx
+++ b/Personal/xiemin/第六周计划 2018.03.12-2018.03.18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="348" windowWidth="14808" windowHeight="7776"/>
+    <workbookView xWindow="240" yWindow="408" windowWidth="14808" windowHeight="7716"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,76 +52,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/3/6
+    <t>C复习：栈，union,strcut,函数指针数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度表：添加在线预览功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux驱动：ok6818-rtc驱动编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Makefile视频：2.1,2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《程序员的自我修养》：11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30-19:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只完成栈的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/12
 星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C复习：栈，union,strcut,函数指针数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度表：添加在线预览功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux驱动：ok6818-rtc驱动编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:30-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:30-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Makefile视频：2.1,2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22:00-23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《程序员的自我修养》：11.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:30-19:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只完成栈的理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:00-23:50</t>
+    <t>2018/3/13
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30-10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C复习：栈，union,strcut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉了一下I2C的驱动框架，完成40%的驱动代码编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux驱动：ok6818-rtc驱动完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Makefile视频：2.1，2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度表：双通道DA回放丢帧问题定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《ARM体系架构》3.2.4-3.2.5</t>
+  </si>
+  <si>
+    <t>10:40-11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:10-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:40-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:25-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00：思考后续自己的学习方向；
+找STLINK,思考自己为什么总是丢三落四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00-11:55
+13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:00-22:56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +294,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -397,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +565,39 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -498,12 +611,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,22 +623,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +936,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -860,10 +955,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,115 +985,117 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>9</v>
+      <c r="A2" s="44" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="50">
+      <c r="I2" s="42">
         <v>0.5</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="36"/>
+        <v>24</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="36"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="18"/>
       <c r="C6" s="28">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -1006,15 +1103,27 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="21"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="30"/>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="55">
+        <v>0.9</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1022,16 +1131,26 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
       <c r="B9" s="22"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="41"/>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="56"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1039,16 +1158,24 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
       <c r="B10" s="23"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="41"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1056,16 +1183,24 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="21"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="30"/>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1073,16 +1208,24 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="22"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="41"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1091,24 +1234,12 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21"/>
       <c r="C14" s="10"/>
       <c r="D14" s="6"/>
@@ -1125,7 +1256,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="22"/>
       <c r="C15" s="10"/>
       <c r="D15" s="6"/>
@@ -1142,7 +1273,7 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="23"/>
       <c r="C16" s="10"/>
       <c r="D16" s="13"/>
@@ -1159,7 +1290,7 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="21"/>
       <c r="C17" s="10"/>
       <c r="D17" s="6"/>
@@ -1176,7 +1307,7 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="23"/>
       <c r="C18" s="10"/>
       <c r="D18" s="6"/>
@@ -1193,7 +1324,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="19"/>
       <c r="C19" s="10"/>
       <c r="D19" s="6"/>
@@ -1210,7 +1341,7 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="20"/>
       <c r="C20" s="10"/>
       <c r="D20" s="6"/>
@@ -1227,7 +1358,7 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="20"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
@@ -1244,7 +1375,7 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
@@ -1252,7 +1383,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="30"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="42"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1278,7 +1409,7 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="21"/>
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
@@ -1286,7 +1417,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="31"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1295,7 +1426,7 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="22"/>
       <c r="C25" s="10"/>
       <c r="D25" s="6"/>
@@ -1303,7 +1434,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="30"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="44"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1312,7 +1443,7 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="23"/>
       <c r="C26" s="10"/>
       <c r="D26" s="6"/>
@@ -1320,7 +1451,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="31"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="53"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1329,7 +1460,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="21"/>
       <c r="C27" s="10"/>
       <c r="D27" s="6"/>
@@ -1337,7 +1468,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="31"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="44"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1346,7 +1477,7 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="23"/>
       <c r="C28" s="10"/>
       <c r="D28" s="6"/>
@@ -1354,7 +1485,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="30"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="44"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1363,7 +1494,7 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="19"/>
       <c r="C29" s="10"/>
       <c r="D29" s="13"/>
@@ -1371,7 +1502,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="31"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="44"/>
+      <c r="I29" s="53"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1380,7 +1511,7 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="20"/>
       <c r="C30" s="10"/>
       <c r="D30" s="13"/>
@@ -1388,7 +1519,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="31"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="44"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -1397,7 +1528,7 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="20"/>
       <c r="C31" s="10"/>
       <c r="D31" s="6"/>
@@ -1405,7 +1536,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="30"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="45"/>
+      <c r="I31" s="54"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -1418,16 +1549,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="I14:I22"/>
+    <mergeCell ref="I24:I31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I8:I12"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="I14:I22"/>
-    <mergeCell ref="I24:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xiemin/第六周计划 2018.03.12-2018.03.18.xlsx
+++ b/Personal/xiemin/第六周计划 2018.03.12-2018.03.18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>计划内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,11 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00-11:00：思考后续自己的学习方向；
-找STLINK,思考自己为什么总是丢三落四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11:00-11:55
 13:00-16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +191,93 @@
   </si>
   <si>
     <t>22:00-22:56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/14
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C复习：多维数组，多级指针，运算符优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux驱动：i2c-adapter，i2c-client动态
+注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度表：编写双通道DA测试程序（MFC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:10-15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinuxShell脚本+Makefile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦东山视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:00-11:00：思考后续自己的学习方向；
+找STLINK,思考自己为什么总是丢三落四
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遗留问题：硬件栈的深入理解</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不写，等同事联调时再写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">原计划时间在搞vim脚本和嵌入式C面试题。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际完成情况：除了枚举，其余均有核心思想未理解</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都在学习Linux的i2c子系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +382,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -477,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,30 +664,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -608,11 +674,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,10 +689,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -946,7 +1024,7 @@
     <col min="3" max="3" width="6.21875" style="5" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="61.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.77734375" style="5" customWidth="1"/>
@@ -955,10 +1033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -985,7 +1063,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="16"/>
@@ -1004,13 +1082,13 @@
       <c r="G2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="51">
         <v>0.5</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>2</v>
@@ -1030,11 +1108,11 @@
       <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="47"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27">
         <v>3</v>
@@ -1051,14 +1129,14 @@
       <c r="G4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
@@ -1075,14 +1153,14 @@
       <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="47"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="18"/>
       <c r="C6" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -1094,8 +1172,8 @@
         <v>20</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="47"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -1103,11 +1181,13 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="25"/>
-      <c r="I8" s="55">
+      <c r="I8" s="49">
         <v>0.9</v>
       </c>
       <c r="J8" s="6"/>
@@ -1131,10 +1211,12 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1142,15 +1224,15 @@
         <v>35</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="56"/>
+        <v>53</v>
+      </c>
+      <c r="I9" s="50"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1159,9 +1241,11 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1169,13 +1253,13 @@
         <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="26"/>
-      <c r="I10" s="56"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1184,9 +1268,11 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
@@ -1194,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="56"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1209,9 +1295,11 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
@@ -1219,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="26"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1239,15 +1327,31 @@
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="40"/>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0.4</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -1255,16 +1359,26 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="41"/>
+      <c r="G15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="52"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1272,16 +1386,24 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1290,15 +1412,22 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="21"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="41"/>
+      <c r="G17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="52"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -1307,15 +1436,21 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="10">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="41"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -1323,16 +1458,16 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="10"/>
+    <row r="19" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="41"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1340,16 +1475,16 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="41"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1358,15 +1493,15 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="30"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="41"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -1374,16 +1509,16 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="11"/>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="51"/>
+      <c r="I22" s="45"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -1391,16 +1526,16 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="11"/>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1408,16 +1543,16 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="21"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="31"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="45"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1425,16 +1560,16 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="22"/>
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="53"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1443,15 +1578,15 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="6"/>
       <c r="G26" s="31"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="53"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1459,16 +1594,16 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="10"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="53"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1477,88 +1612,20 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="30"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="I14:I22"/>
-    <mergeCell ref="I24:I31"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I8:I12"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I20:I27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
